--- a/ERP/New List.xlsx
+++ b/ERP/New List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>COA LIST</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Sales</t>
   </si>
   <si>
+    <t>Purchase</t>
+  </si>
+  <si>
     <t>Measure(UOM)</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>Discount</t>
   </si>
   <si>
+    <t>Purchase invoice</t>
+  </si>
+  <si>
     <t>stock Area</t>
   </si>
   <si>
@@ -43,12 +49,18 @@
     <t>Price Class</t>
   </si>
   <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
     <t>Categories</t>
   </si>
   <si>
     <t>POS</t>
   </si>
   <si>
+    <t>Purchase Receipt</t>
+  </si>
+  <si>
     <t>items</t>
   </si>
   <si>
@@ -58,6 +70,9 @@
     <t>Selling Price List</t>
   </si>
   <si>
+    <t>Debit Quotation</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
@@ -67,16 +82,28 @@
     <t>Promotional Discount</t>
   </si>
   <si>
+    <t>Debit Note</t>
+  </si>
+  <si>
     <t>Special Discount</t>
   </si>
   <si>
+    <t>Debit Order</t>
+  </si>
+  <si>
     <t>Customer</t>
   </si>
   <si>
+    <t>Purchase Quotation</t>
+  </si>
+  <si>
     <t>selling Price</t>
   </si>
   <si>
     <t>Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Requisition </t>
   </si>
   <si>
     <t>Employees</t>
@@ -1058,19 +1085,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.8571428571429" customWidth="1"/>
     <col min="2" max="3" width="27.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="30.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,123 +1108,150 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ERP/New List.xlsx
+++ b/ERP/New List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12615"/>
+    <workbookView windowWidth="28695" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>COA LIST</t>
   </si>
@@ -128,6 +128,39 @@
   </si>
   <si>
     <t>Add on Cost</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>RTF</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Browser Settings</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Column Settings</t>
+  </si>
+  <si>
+    <t>Opened Masters</t>
+  </si>
+  <si>
+    <t>Add to Quick Link</t>
+  </si>
+  <si>
+    <t>Restore</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Active Inactive</t>
   </si>
 </sst>
 </file>
@@ -136,9 +169,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -162,17 +195,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,8 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,24 +233,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +304,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,67 +333,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,132 +348,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,49 +516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,11 +542,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,17 +605,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,30 +631,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -597,21 +639,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,130 +662,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,10 +1118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1254,6 +1287,61 @@
         <v>37</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
